--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3116997.323781536</v>
+        <v>3115569.186204584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1221982.047703457</v>
+        <v>1221982.047703458</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673416</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -707,7 +707,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>140.0306324445843</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>18.29749587628862</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,13 +941,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.603382851973697</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>84.75179106303119</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>190.167558667311</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.60023339142367</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>115.5785074418531</v>
+        <v>161.6951706354068</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C11" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E11" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F11" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G11" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H11" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I11" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970289</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121984</v>
       </c>
       <c r="T11" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U11" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V11" t="n">
         <v>240.4631016570718</v>
@@ -1433,7 +1433,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X11" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y11" t="n">
         <v>298.9487818429905</v>
@@ -1467,7 +1467,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I12" t="n">
-        <v>47.12598321092378</v>
+        <v>47.12598321092376</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.93066010031256</v>
+        <v>23.93066010031254</v>
       </c>
       <c r="S12" t="n">
         <v>148.8785594825027</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887424</v>
       </c>
       <c r="C13" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556477</v>
       </c>
       <c r="D13" t="n">
-        <v>61.32631620514924</v>
+        <v>61.3263162051493</v>
       </c>
       <c r="E13" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350611</v>
       </c>
       <c r="F13" t="n">
-        <v>58.13189120986813</v>
+        <v>58.13189120986819</v>
       </c>
       <c r="G13" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596137</v>
       </c>
       <c r="H13" t="n">
-        <v>65.78668708013305</v>
+        <v>65.78668708013311</v>
       </c>
       <c r="I13" t="n">
-        <v>37.20774443738825</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.7235890364501</v>
+        <v>43.72358903645014</v>
       </c>
       <c r="S13" t="n">
-        <v>118.7897142775854</v>
+        <v>70.73199133630783</v>
       </c>
       <c r="T13" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U13" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V13" t="n">
         <v>164.8484865107649</v>
       </c>
       <c r="W13" t="n">
-        <v>151.1761185822513</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X13" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y13" t="n">
         <v>131.2954965390317</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C14" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D14" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E14" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F14" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G14" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H14" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I14" t="n">
-        <v>34.72313714970198</v>
+        <v>34.72313714970274</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.4421069912198</v>
+        <v>69.44210699121986</v>
       </c>
       <c r="T14" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U14" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V14" t="n">
         <v>240.4631016570718</v>
@@ -1670,7 +1670,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X14" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y14" t="n">
         <v>298.9487818429905</v>
@@ -1704,7 +1704,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I15" t="n">
-        <v>47.12598321092378</v>
+        <v>47.12598321092376</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.93066010031256</v>
+        <v>23.93066010031254</v>
       </c>
       <c r="S15" t="n">
         <v>148.8785594825027</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.54282336887417</v>
+        <v>92.54282336887424</v>
       </c>
       <c r="C16" t="n">
-        <v>79.9576642855647</v>
+        <v>79.95766428556477</v>
       </c>
       <c r="D16" t="n">
-        <v>61.32631620514923</v>
+        <v>61.3263162051493</v>
       </c>
       <c r="E16" t="n">
-        <v>59.14480583350604</v>
+        <v>59.14480583350611</v>
       </c>
       <c r="F16" t="n">
-        <v>10.07416826859212</v>
+        <v>58.13189120986819</v>
       </c>
       <c r="G16" t="n">
-        <v>79.6725320059613</v>
+        <v>79.67253200596137</v>
       </c>
       <c r="H16" t="n">
-        <v>65.78668708013305</v>
+        <v>65.78668708013312</v>
       </c>
       <c r="I16" t="n">
-        <v>37.20774443738824</v>
+        <v>32.87361053256063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.72358903645008</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T16" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U16" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V16" t="n">
         <v>164.8484865107649</v>
@@ -1828,7 +1828,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X16" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y16" t="n">
         <v>131.2954965390317</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C17" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D17" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E17" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F17" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G17" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H17" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I17" t="n">
-        <v>34.72313714970328</v>
+        <v>34.72313714970241</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.4421069912198</v>
+        <v>69.44210699121984</v>
       </c>
       <c r="T17" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U17" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V17" t="n">
         <v>240.4631016570718</v>
@@ -1907,7 +1907,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X17" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y17" t="n">
         <v>298.9487818429905</v>
@@ -1941,7 +1941,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I18" t="n">
-        <v>47.12598321092378</v>
+        <v>47.12598321092376</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.93066010031256</v>
+        <v>23.93066010031254</v>
       </c>
       <c r="S18" t="n">
         <v>148.8785594825027</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.54282336887417</v>
+        <v>92.54282336887424</v>
       </c>
       <c r="C19" t="n">
-        <v>31.89994134428846</v>
+        <v>79.95766428556477</v>
       </c>
       <c r="D19" t="n">
-        <v>61.32631620514923</v>
+        <v>61.3263162051493</v>
       </c>
       <c r="E19" t="n">
-        <v>59.14480583350604</v>
+        <v>11.08708289222839</v>
       </c>
       <c r="F19" t="n">
-        <v>58.13189120986812</v>
+        <v>58.13189120986819</v>
       </c>
       <c r="G19" t="n">
-        <v>79.6725320059613</v>
+        <v>79.67253200596137</v>
       </c>
       <c r="H19" t="n">
-        <v>65.78668708013305</v>
+        <v>65.78668708013311</v>
       </c>
       <c r="I19" t="n">
-        <v>37.20774443738824</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.72358903645009</v>
+        <v>43.72358903645014</v>
       </c>
       <c r="S19" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T19" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U19" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V19" t="n">
         <v>164.8484865107649</v>
@@ -2065,7 +2065,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X19" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y19" t="n">
         <v>131.2954965390317</v>
@@ -2178,7 +2178,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I21" t="n">
-        <v>47.12598321092378</v>
+        <v>47.12598321092379</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.93066010031256</v>
+        <v>23.93066010031258</v>
       </c>
       <c r="S21" t="n">
         <v>148.8785594825027</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.54282336887417</v>
+        <v>92.54282336887415</v>
       </c>
       <c r="C22" t="n">
-        <v>31.89994134428892</v>
+        <v>79.95766428556469</v>
       </c>
       <c r="D22" t="n">
-        <v>61.32631620514923</v>
+        <v>61.32631620514921</v>
       </c>
       <c r="E22" t="n">
-        <v>59.14480583350604</v>
+        <v>59.14480583350603</v>
       </c>
       <c r="F22" t="n">
-        <v>58.13189120986812</v>
+        <v>58.1318912098681</v>
       </c>
       <c r="G22" t="n">
-        <v>79.6725320059613</v>
+        <v>79.67253200596129</v>
       </c>
       <c r="H22" t="n">
-        <v>65.78668708013305</v>
+        <v>54.93670857624456</v>
       </c>
       <c r="I22" t="n">
-        <v>37.20774443738824</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.72358903645008</v>
+        <v>43.72358903645009</v>
       </c>
       <c r="S22" t="n">
         <v>118.7897142775854</v>
       </c>
       <c r="T22" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558171</v>
       </c>
       <c r="U22" t="n">
         <v>198.973729423095</v>
@@ -2336,7 +2336,7 @@
         <v>228.6857996761753</v>
       </c>
       <c r="I23" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970238</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121979</v>
       </c>
       <c r="T23" t="n">
         <v>125.761964399536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.48510042759795</v>
+        <v>92.54282336887415</v>
       </c>
       <c r="C25" t="n">
-        <v>79.9576642855647</v>
+        <v>79.95766428556469</v>
       </c>
       <c r="D25" t="n">
-        <v>61.32631620514923</v>
+        <v>61.32631620514921</v>
       </c>
       <c r="E25" t="n">
-        <v>59.14480583350604</v>
+        <v>59.14480583350603</v>
       </c>
       <c r="F25" t="n">
-        <v>58.13189120986812</v>
+        <v>10.07416826859212</v>
       </c>
       <c r="G25" t="n">
-        <v>79.6725320059613</v>
+        <v>79.67253200596129</v>
       </c>
       <c r="H25" t="n">
-        <v>65.78668708013305</v>
+        <v>65.78668708013304</v>
       </c>
       <c r="I25" t="n">
-        <v>37.20774443738824</v>
+        <v>37.20774443738823</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.72358903645011</v>
+        <v>43.72358903645009</v>
       </c>
       <c r="S25" t="n">
         <v>118.7897142775854</v>
       </c>
       <c r="T25" t="n">
-        <v>136.2585548558172</v>
+        <v>136.2585548558171</v>
       </c>
       <c r="U25" t="n">
         <v>198.973729423095</v>
@@ -2722,10 +2722,10 @@
         <v>59.14480583350598</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0741682685928</v>
+        <v>58.13189120986806</v>
       </c>
       <c r="G28" t="n">
-        <v>79.67253200596124</v>
+        <v>75.33839810113651</v>
       </c>
       <c r="H28" t="n">
         <v>65.78668708013299</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.72358903645004</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>118.7897142775854</v>
@@ -2804,7 +2804,7 @@
         <v>319.5868889286482</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7189540084038</v>
+        <v>325.7189540084037</v>
       </c>
       <c r="H29" t="n">
         <v>228.6857996761753</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.48510042759881</v>
+        <v>92.54282336887414</v>
       </c>
       <c r="C31" t="n">
         <v>79.95766428556468</v>
@@ -2968,7 +2968,7 @@
         <v>65.78668708013302</v>
       </c>
       <c r="I31" t="n">
-        <v>37.20774443738821</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.72358903645008</v>
+        <v>43.72358903645006</v>
       </c>
       <c r="S31" t="n">
         <v>118.7897142775854</v>
@@ -3016,7 +3016,7 @@
         <v>138.420498575974</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.2954965390316</v>
+        <v>120.4455180351445</v>
       </c>
     </row>
     <row r="32">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C35" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D35" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E35" t="n">
-        <v>294.6412132591986</v>
+        <v>294.6412132591987</v>
       </c>
       <c r="F35" t="n">
-        <v>319.5868889286482</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G35" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H35" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I35" t="n">
-        <v>34.72313714970237</v>
+        <v>34.72313714970244</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.44210699121979</v>
+        <v>69.44210699121986</v>
       </c>
       <c r="T35" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U35" t="n">
         <v>163.8729259592799</v>
       </c>
       <c r="V35" t="n">
-        <v>240.4631016570717</v>
+        <v>240.4631016570718</v>
       </c>
       <c r="W35" t="n">
-        <v>261.9518119043498</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X35" t="n">
-        <v>282.4419438654058</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y35" t="n">
         <v>298.9487818429905</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.54282336887414</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C37" t="n">
-        <v>79.95766428556468</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D37" t="n">
-        <v>13.26859326387324</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E37" t="n">
-        <v>59.14480583350601</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F37" t="n">
-        <v>58.13189120986809</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G37" t="n">
-        <v>79.67253200596127</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H37" t="n">
-        <v>65.78668708013302</v>
+        <v>17.72896413885621</v>
       </c>
       <c r="I37" t="n">
-        <v>37.20774443738821</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.72358903645008</v>
+        <v>43.72358903645015</v>
       </c>
       <c r="S37" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T37" t="n">
-        <v>136.2585548558171</v>
+        <v>136.2585548558172</v>
       </c>
       <c r="U37" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V37" t="n">
-        <v>164.8484865107648</v>
+        <v>164.8484865107649</v>
       </c>
       <c r="W37" t="n">
-        <v>199.2338415235278</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X37" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.2954965390316</v>
+        <v>131.2954965390317</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C38" t="n">
         <v>277.9837349579444</v>
       </c>
       <c r="D38" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E38" t="n">
-        <v>294.6412132591986</v>
+        <v>294.6412132591987</v>
       </c>
       <c r="F38" t="n">
-        <v>319.5868889286482</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G38" t="n">
-        <v>325.7189540084037</v>
+        <v>325.7189540084038</v>
       </c>
       <c r="H38" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I38" t="n">
-        <v>34.72313714970234</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.44210699121976</v>
+        <v>69.44210699121984</v>
       </c>
       <c r="T38" t="n">
         <v>125.761964399536</v>
@@ -3560,16 +3560,16 @@
         <v>163.8729259592799</v>
       </c>
       <c r="V38" t="n">
-        <v>240.4631016570717</v>
+        <v>240.4631016570718</v>
       </c>
       <c r="W38" t="n">
-        <v>261.9518119043498</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X38" t="n">
-        <v>282.4419438654058</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.9487818429904</v>
+        <v>298.9487818429905</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.54282336887411</v>
+        <v>92.5428233688742</v>
       </c>
       <c r="C40" t="n">
-        <v>79.95766428556465</v>
+        <v>79.95766428556473</v>
       </c>
       <c r="D40" t="n">
-        <v>61.32631620514917</v>
+        <v>13.26859326387223</v>
       </c>
       <c r="E40" t="n">
-        <v>59.14480583350598</v>
+        <v>59.14480583350607</v>
       </c>
       <c r="F40" t="n">
-        <v>58.13189120986806</v>
+        <v>58.13189120986814</v>
       </c>
       <c r="G40" t="n">
-        <v>79.67253200596124</v>
+        <v>79.67253200596133</v>
       </c>
       <c r="H40" t="n">
-        <v>65.78668708013299</v>
+        <v>65.78668708013308</v>
       </c>
       <c r="I40" t="n">
-        <v>37.20774443738819</v>
+        <v>37.20774443738827</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>43.72358903645014</v>
       </c>
       <c r="S40" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T40" t="n">
-        <v>136.2585548558171</v>
+        <v>136.2585548558172</v>
       </c>
       <c r="U40" t="n">
-        <v>198.9737294230949</v>
+        <v>198.973729423095</v>
       </c>
       <c r="V40" t="n">
-        <v>164.8484865107648</v>
+        <v>164.8484865107649</v>
       </c>
       <c r="W40" t="n">
-        <v>194.8997076187026</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X40" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.2954965390316</v>
+        <v>131.2954965390317</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.8375769476206</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>342.3766270551475</v>
+        <v>342.3766270551477</v>
       </c>
       <c r="D41" t="n">
-        <v>331.7867769048229</v>
+        <v>331.7867769048231</v>
       </c>
       <c r="E41" t="n">
-        <v>359.0341053564018</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>383.9797810258514</v>
+        <v>383.9797810258516</v>
       </c>
       <c r="G41" t="n">
-        <v>368.6688593094884</v>
+        <v>390.1118461056071</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>279.0080209546797</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>190.1548564967393</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>228.2658180564832</v>
       </c>
       <c r="V41" t="n">
-        <v>304.8559937542749</v>
+        <v>304.8559937542751</v>
       </c>
       <c r="W41" t="n">
-        <v>326.344704001553</v>
+        <v>326.3447040015532</v>
       </c>
       <c r="X41" t="n">
-        <v>346.834835962609</v>
+        <v>346.8348359626092</v>
       </c>
       <c r="Y41" t="n">
-        <v>363.3416739401936</v>
+        <v>363.3416739401937</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.9357154660773</v>
+        <v>156.9357154660775</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>144.350556382768</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>123.5376979307093</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>122.5247833070714</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>144.0654241031646</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>110.0208148750417</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.1164811336534</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1826063747885</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.1180291006558</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>263.626733620731</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>202.8133906731771</v>
+        <v>202.8133906731773</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.6883886362347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>359.8375769476206</v>
+        <v>359.8375769476207</v>
       </c>
       <c r="C44" t="n">
-        <v>342.3766270551475</v>
+        <v>342.3766270551477</v>
       </c>
       <c r="D44" t="n">
-        <v>331.7867769048229</v>
+        <v>331.7867769048231</v>
       </c>
       <c r="E44" t="n">
-        <v>359.0341053564018</v>
+        <v>359.0341053564019</v>
       </c>
       <c r="F44" t="n">
-        <v>383.9797810258514</v>
+        <v>383.9797810258516</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>390.1118461056071</v>
       </c>
       <c r="H44" t="n">
-        <v>293.0786917733785</v>
+        <v>283.413006958155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>152.1803432339017</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>228.265818056483</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>326.344704001553</v>
+        <v>326.3447040015532</v>
       </c>
       <c r="X44" t="n">
-        <v>346.834835962609</v>
+        <v>346.8348359626092</v>
       </c>
       <c r="Y44" t="n">
-        <v>363.3416739401936</v>
+        <v>363.3416739401937</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.9357154660773</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>123.5376979307093</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1826063747885</v>
+        <v>65.49397521066854</v>
       </c>
       <c r="T46" t="n">
-        <v>200.6514469530202</v>
+        <v>200.6514469530204</v>
       </c>
       <c r="U46" t="n">
-        <v>263.3666215202981</v>
+        <v>263.3666215202983</v>
       </c>
       <c r="V46" t="n">
-        <v>229.241378607968</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>78.98709494951264</v>
+        <v>263.6267336207312</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>195.6883886362349</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>341.056931913353</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>293.2822280683544</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4419,40 +4419,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>223.7040404982626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="4">
@@ -4468,16 +4468,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
-        <v>65.29076204560282</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>49.83345142425428</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>49.83345142425428</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105.643145523636</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>481.618781308658</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>273.858482543704</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>65.29076204560282</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>315.6850394389064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.23626279480629</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="9">
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>847.3111883976533</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>603.8624117535533</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>396.0109115480204</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4945,7 +4945,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C11" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E11" t="n">
-        <v>989.7770592175125</v>
+        <v>989.7770592175129</v>
       </c>
       <c r="F11" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956459</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427126</v>
       </c>
       <c r="H11" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940509</v>
       </c>
       <c r="I11" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J11" t="n">
-        <v>252.8595824424915</v>
+        <v>252.859582442492</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8408574352537</v>
+        <v>644.8408574352543</v>
       </c>
       <c r="L11" t="n">
-        <v>1183.404917961335</v>
+        <v>1183.404917961336</v>
       </c>
       <c r="M11" t="n">
-        <v>1799.267750954546</v>
+        <v>1799.267750954547</v>
       </c>
       <c r="N11" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O11" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546641</v>
       </c>
       <c r="P11" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803207</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="S11" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847629</v>
       </c>
       <c r="T11" t="n">
         <v>3396.99128457537</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X11" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y11" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F12" t="n">
-        <v>358.3680796676262</v>
+        <v>358.3680796676261</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8773891171313</v>
+        <v>220.8773891171312</v>
       </c>
       <c r="H12" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I12" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J12" t="n">
-        <v>185.9781714285405</v>
+        <v>185.9781714285406</v>
       </c>
       <c r="K12" t="n">
-        <v>245.7846656637759</v>
+        <v>507.6052503062288</v>
       </c>
       <c r="L12" t="n">
-        <v>584.3777278466712</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.681923227821</v>
+        <v>1297.307177743977</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.322474470685</v>
+        <v>1483.398778386722</v>
       </c>
       <c r="O12" t="n">
         <v>2021.340137914921</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.5678282019982</v>
+        <v>517.5678282019987</v>
       </c>
       <c r="C13" t="n">
-        <v>436.8025107418318</v>
+        <v>436.8025107418323</v>
       </c>
       <c r="D13" t="n">
-        <v>374.8567367972366</v>
+        <v>374.856736797237</v>
       </c>
       <c r="E13" t="n">
-        <v>315.114508682584</v>
+        <v>315.1145086825844</v>
       </c>
       <c r="F13" t="n">
-        <v>256.3954266524142</v>
+        <v>256.3954266524145</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9181215958876</v>
+        <v>175.9181215958879</v>
       </c>
       <c r="H13" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I13" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J13" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413137</v>
       </c>
       <c r="K13" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243586</v>
       </c>
       <c r="L13" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141852</v>
       </c>
       <c r="M13" t="n">
-        <v>871.2399800945348</v>
+        <v>871.239980094535</v>
       </c>
       <c r="N13" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O13" t="n">
-        <v>1412.067750491542</v>
+        <v>1412.067750491543</v>
       </c>
       <c r="P13" t="n">
-        <v>1619.032921438428</v>
+        <v>1619.032921438429</v>
       </c>
       <c r="Q13" t="n">
         <v>1705.47592029275</v>
@@ -5224,25 +5224,25 @@
         <v>1661.31067884179</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.321068460391</v>
+        <v>1589.86422294653</v>
       </c>
       <c r="T13" t="n">
-        <v>1403.686164565626</v>
+        <v>1452.229319051765</v>
       </c>
       <c r="U13" t="n">
-        <v>1202.702599491793</v>
+        <v>1251.245753977931</v>
       </c>
       <c r="V13" t="n">
-        <v>1036.188976753646</v>
+        <v>1084.732131239785</v>
       </c>
       <c r="W13" t="n">
-        <v>883.4858266705642</v>
+        <v>883.4858266705647</v>
       </c>
       <c r="X13" t="n">
-        <v>743.6671412402874</v>
+        <v>743.6671412402878</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.0454275644973</v>
+        <v>611.0454275644979</v>
       </c>
     </row>
     <row r="14">
@@ -5264,61 +5264,61 @@
         <v>989.7770592175134</v>
       </c>
       <c r="F14" t="n">
-        <v>666.9620198956461</v>
+        <v>666.9620198956463</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9529754427119</v>
+        <v>337.9529754427131</v>
       </c>
       <c r="H14" t="n">
-        <v>106.9572181940499</v>
+        <v>106.9572181940507</v>
       </c>
       <c r="I14" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J14" t="n">
-        <v>252.8595824424915</v>
+        <v>252.859582442492</v>
       </c>
       <c r="K14" t="n">
-        <v>644.8408574352538</v>
+        <v>644.8408574352543</v>
       </c>
       <c r="L14" t="n">
-        <v>1183.404917961335</v>
+        <v>1183.404917961336</v>
       </c>
       <c r="M14" t="n">
-        <v>1799.267750954546</v>
+        <v>1799.267750954547</v>
       </c>
       <c r="N14" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O14" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546641</v>
       </c>
       <c r="P14" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803207</v>
       </c>
       <c r="Q14" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="S14" t="n">
         <v>3524.023571847629</v>
       </c>
       <c r="T14" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575371</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V14" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W14" t="n">
         <v>2723.97326485749</v>
       </c>
       <c r="X14" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y14" t="n">
         <v>2136.709905556079</v>
@@ -5343,37 +5343,37 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F15" t="n">
-        <v>358.3680796676262</v>
+        <v>358.3680796676261</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8773891171313</v>
+        <v>220.8773891171312</v>
       </c>
       <c r="H15" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I15" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J15" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="K15" t="n">
-        <v>245.7846656637759</v>
+        <v>131.6898365204955</v>
       </c>
       <c r="L15" t="n">
-        <v>372.5244188980056</v>
+        <v>402.430546621199</v>
       </c>
       <c r="M15" t="n">
-        <v>1000.828614279156</v>
+        <v>1030.734742002349</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.469165522019</v>
+        <v>1691.375293245213</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.410525050218</v>
+        <v>2229.316652773412</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q15" t="n">
         <v>2660.628911095451</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.0246737158608</v>
+        <v>513.1899151668198</v>
       </c>
       <c r="C16" t="n">
-        <v>388.2593562556944</v>
+        <v>432.4245977066533</v>
       </c>
       <c r="D16" t="n">
-        <v>326.3135823110991</v>
+        <v>370.478823762058</v>
       </c>
       <c r="E16" t="n">
-        <v>266.5713541964466</v>
+        <v>310.7365956474054</v>
       </c>
       <c r="F16" t="n">
-        <v>256.3954266524141</v>
+        <v>252.0175136172355</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9181215958876</v>
+        <v>171.5402085607088</v>
       </c>
       <c r="H16" t="n">
-        <v>109.4669225250461</v>
+        <v>105.0890094898668</v>
       </c>
       <c r="I16" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J16" t="n">
         <v>137.9171519413135</v>
       </c>
       <c r="K16" t="n">
-        <v>320.6756181243583</v>
+        <v>320.6756181243584</v>
       </c>
       <c r="L16" t="n">
-        <v>585.9031657141849</v>
+        <v>585.903165714185</v>
       </c>
       <c r="M16" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945348</v>
       </c>
       <c r="N16" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O16" t="n">
-        <v>1412.067750491542</v>
+        <v>1412.067750491543</v>
       </c>
       <c r="P16" t="n">
-        <v>1619.032921438428</v>
+        <v>1619.032921438429</v>
       </c>
       <c r="Q16" t="n">
         <v>1705.47592029275</v>
       </c>
       <c r="R16" t="n">
-        <v>1661.31067884179</v>
+        <v>1705.47592029275</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.321068460391</v>
+        <v>1585.48630991135</v>
       </c>
       <c r="T16" t="n">
-        <v>1403.686164565626</v>
+        <v>1447.851406016586</v>
       </c>
       <c r="U16" t="n">
-        <v>1202.702599491793</v>
+        <v>1246.867840942752</v>
       </c>
       <c r="V16" t="n">
-        <v>1036.188976753646</v>
+        <v>1080.354218204606</v>
       </c>
       <c r="W16" t="n">
-        <v>834.9426721844263</v>
+        <v>879.1079136353856</v>
       </c>
       <c r="X16" t="n">
-        <v>695.1239867541495</v>
+        <v>739.2892282051087</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.50227307836</v>
+        <v>606.6675145293191</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>989.7770592175129</v>
       </c>
       <c r="F17" t="n">
-        <v>666.962019895646</v>
+        <v>666.9620198956459</v>
       </c>
       <c r="G17" t="n">
-        <v>337.9529754427128</v>
+        <v>337.9529754427126</v>
       </c>
       <c r="H17" t="n">
-        <v>106.9572181940513</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I17" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J17" t="n">
         <v>252.8595824424916</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8408574352538</v>
+        <v>644.840857435254</v>
       </c>
       <c r="L17" t="n">
-        <v>1183.404917961335</v>
+        <v>1183.404917961336</v>
       </c>
       <c r="M17" t="n">
-        <v>1799.267750954546</v>
+        <v>1799.267750954547</v>
       </c>
       <c r="N17" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O17" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546641</v>
       </c>
       <c r="P17" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803207</v>
       </c>
       <c r="Q17" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R17" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="S17" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847629</v>
       </c>
       <c r="T17" t="n">
         <v>3396.99128457537</v>
@@ -5552,13 +5552,13 @@
         <v>2988.571054659863</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.97326485749</v>
+        <v>2723.973264857489</v>
       </c>
       <c r="X17" t="n">
         <v>2438.67837206415</v>
       </c>
       <c r="Y17" t="n">
-        <v>2136.709905556079</v>
+        <v>2136.709905556078</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F18" t="n">
-        <v>358.3680796676262</v>
+        <v>358.3680796676261</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8773891171313</v>
+        <v>220.8773891171312</v>
       </c>
       <c r="H18" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I18" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J18" t="n">
-        <v>185.9781714285405</v>
+        <v>185.9781714285406</v>
       </c>
       <c r="K18" t="n">
-        <v>245.7846656637759</v>
+        <v>245.784665663776</v>
       </c>
       <c r="L18" t="n">
-        <v>739.6563607484302</v>
+        <v>739.6563607484305</v>
       </c>
       <c r="M18" t="n">
-        <v>1367.96055612958</v>
+        <v>1367.960556129581</v>
       </c>
       <c r="N18" t="n">
         <v>2028.601107372444</v>
       </c>
       <c r="O18" t="n">
-        <v>2176.61877081668</v>
+        <v>2336.618278868459</v>
       </c>
       <c r="P18" t="n">
         <v>2436.0824370069</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.0246737158606</v>
+        <v>469.0246737158595</v>
       </c>
       <c r="C19" t="n">
-        <v>436.8025107418318</v>
+        <v>388.259356255693</v>
       </c>
       <c r="D19" t="n">
-        <v>374.8567367972365</v>
+        <v>326.3135823110978</v>
       </c>
       <c r="E19" t="n">
-        <v>315.114508682584</v>
+        <v>315.1145086825842</v>
       </c>
       <c r="F19" t="n">
-        <v>256.3954266524141</v>
+        <v>256.3954266524144</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9181215958876</v>
+        <v>175.9181215958877</v>
       </c>
       <c r="H19" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I19" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526006</v>
       </c>
       <c r="J19" t="n">
         <v>137.9171519413135</v>
       </c>
       <c r="K19" t="n">
-        <v>320.6756181243582</v>
+        <v>320.6756181243584</v>
       </c>
       <c r="L19" t="n">
-        <v>585.9031657141848</v>
+        <v>585.903165714185</v>
       </c>
       <c r="M19" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945348</v>
       </c>
       <c r="N19" t="n">
         <v>1157.281524847586</v>
@@ -5692,31 +5692,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q19" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R19" t="n">
         <v>1661.31067884179</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T19" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U19" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V19" t="n">
         <v>1036.188976753646</v>
       </c>
       <c r="W19" t="n">
-        <v>834.9426721844262</v>
+        <v>834.9426721844254</v>
       </c>
       <c r="X19" t="n">
-        <v>695.1239867541493</v>
+        <v>695.1239867541484</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.5022730783597</v>
+        <v>562.5022730783587</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E20" t="n">
-        <v>989.7770592175125</v>
+        <v>989.7770592175123</v>
       </c>
       <c r="F20" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956453</v>
       </c>
       <c r="G20" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H20" t="n">
         <v>106.9572181940503</v>
@@ -5753,10 +5753,10 @@
         <v>252.8595824424915</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8408574352536</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L20" t="n">
-        <v>1183.404917961334</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M20" t="n">
         <v>1799.267750954546</v>
@@ -5765,22 +5765,22 @@
         <v>2410.463890904544</v>
       </c>
       <c r="O20" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546639</v>
       </c>
       <c r="P20" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803205</v>
       </c>
       <c r="Q20" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="R20" t="n">
-        <v>3594.167114263003</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="S20" t="n">
-        <v>3524.023571847629</v>
+        <v>3524.023571847627</v>
       </c>
       <c r="T20" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575369</v>
       </c>
       <c r="U20" t="n">
         <v>3231.463076535693</v>
@@ -5829,25 +5829,25 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J21" t="n">
-        <v>71.88334228526003</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K21" t="n">
-        <v>131.6898365204954</v>
+        <v>507.6052503062285</v>
       </c>
       <c r="L21" t="n">
-        <v>258.4295897547252</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M21" t="n">
-        <v>886.7337851358752</v>
+        <v>1629.781140772033</v>
       </c>
       <c r="N21" t="n">
-        <v>1547.374336378739</v>
+        <v>1815.872741414778</v>
       </c>
       <c r="O21" t="n">
-        <v>2085.315695906937</v>
+        <v>2353.814100942976</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.0824370069</v>
+        <v>2453.278259081418</v>
       </c>
       <c r="Q21" t="n">
         <v>2660.628911095451</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.024673715861</v>
+        <v>469.0246737158607</v>
       </c>
       <c r="C22" t="n">
-        <v>436.8025107418317</v>
+        <v>388.2593562556943</v>
       </c>
       <c r="D22" t="n">
-        <v>374.8567367972365</v>
+        <v>326.3135823110991</v>
       </c>
       <c r="E22" t="n">
-        <v>315.114508682584</v>
+        <v>266.5713541964466</v>
       </c>
       <c r="F22" t="n">
-        <v>256.3954266524141</v>
+        <v>207.8522721662767</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9181215958876</v>
+        <v>127.3749671097495</v>
       </c>
       <c r="H22" t="n">
-        <v>109.4669225250461</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I22" t="n">
         <v>71.88334228526003</v>
@@ -5917,13 +5917,13 @@
         <v>585.903165714185</v>
       </c>
       <c r="M22" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945348</v>
       </c>
       <c r="N22" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O22" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P22" t="n">
         <v>1619.032921438429</v>
@@ -5953,7 +5953,7 @@
         <v>695.1239867541494</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.5022730783601</v>
+        <v>562.5022730783598</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1838.280930959698</v>
+        <v>1838.280930959697</v>
       </c>
       <c r="C23" t="n">
         <v>1557.489279487026</v>
@@ -5972,49 +5972,49 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E23" t="n">
-        <v>989.7770592175127</v>
+        <v>989.7770592175125</v>
       </c>
       <c r="F23" t="n">
-        <v>666.9620198956457</v>
+        <v>666.9620198956454</v>
       </c>
       <c r="G23" t="n">
-        <v>337.9529754427122</v>
+        <v>337.9529754427123</v>
       </c>
       <c r="H23" t="n">
-        <v>106.9572181940502</v>
+        <v>106.9572181940503</v>
       </c>
       <c r="I23" t="n">
         <v>71.88334228526003</v>
       </c>
       <c r="J23" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K23" t="n">
-        <v>644.8408574352543</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L23" t="n">
         <v>1183.404917961335</v>
       </c>
       <c r="M23" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954546</v>
       </c>
       <c r="N23" t="n">
         <v>2410.463890904544</v>
       </c>
       <c r="O23" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546639</v>
       </c>
       <c r="P23" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803205</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="R23" t="n">
         <v>3594.167114263002</v>
       </c>
       <c r="S23" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847629</v>
       </c>
       <c r="T23" t="n">
         <v>3396.99128457537</v>
@@ -6026,13 +6026,13 @@
         <v>2988.571054659863</v>
       </c>
       <c r="W23" t="n">
-        <v>2723.97326485749</v>
+        <v>2723.973264857489</v>
       </c>
       <c r="X23" t="n">
         <v>2438.67837206415</v>
       </c>
       <c r="Y23" t="n">
-        <v>2136.709905556079</v>
+        <v>2136.709905556078</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J24" t="n">
-        <v>71.88334228526003</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K24" t="n">
-        <v>131.6898365204953</v>
+        <v>476.9084907440929</v>
       </c>
       <c r="L24" t="n">
-        <v>625.5615316051496</v>
+        <v>970.7801858287472</v>
       </c>
       <c r="M24" t="n">
-        <v>1253.8657269863</v>
+        <v>1138.036368097397</v>
       </c>
       <c r="N24" t="n">
-        <v>1914.506278229163</v>
+        <v>1798.676919340261</v>
       </c>
       <c r="O24" t="n">
-        <v>2452.447637757362</v>
+        <v>2336.618278868459</v>
       </c>
       <c r="P24" t="n">
-        <v>2551.911795895803</v>
+        <v>2436.0824370069</v>
       </c>
       <c r="Q24" t="n">
         <v>2660.628911095451</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.5678282019981</v>
+        <v>469.0246737158606</v>
       </c>
       <c r="C25" t="n">
-        <v>436.8025107418317</v>
+        <v>388.2593562556942</v>
       </c>
       <c r="D25" t="n">
-        <v>374.8567367972365</v>
+        <v>326.3135823110991</v>
       </c>
       <c r="E25" t="n">
-        <v>315.114508682584</v>
+        <v>266.5713541964465</v>
       </c>
       <c r="F25" t="n">
         <v>256.3954266524141</v>
@@ -6139,7 +6139,7 @@
         <v>175.9181215958875</v>
       </c>
       <c r="H25" t="n">
-        <v>109.4669225250461</v>
+        <v>109.466922525046</v>
       </c>
       <c r="I25" t="n">
         <v>71.88334228526003</v>
@@ -6148,13 +6148,13 @@
         <v>137.9171519413134</v>
       </c>
       <c r="K25" t="n">
-        <v>320.6756181243582</v>
+        <v>320.6756181243584</v>
       </c>
       <c r="L25" t="n">
-        <v>585.9031657141848</v>
+        <v>585.903165714185</v>
       </c>
       <c r="M25" t="n">
-        <v>871.2399800945344</v>
+        <v>871.2399800945349</v>
       </c>
       <c r="N25" t="n">
         <v>1157.281524847586</v>
@@ -6166,31 +6166,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q25" t="n">
-        <v>1705.475920292749</v>
+        <v>1705.47592029275</v>
       </c>
       <c r="R25" t="n">
         <v>1661.31067884179</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.32106846039</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T25" t="n">
-        <v>1403.686164565625</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U25" t="n">
-        <v>1202.702599491792</v>
+        <v>1202.702599491793</v>
       </c>
       <c r="V25" t="n">
         <v>1036.188976753646</v>
       </c>
       <c r="W25" t="n">
-        <v>834.9426721844258</v>
+        <v>834.9426721844263</v>
       </c>
       <c r="X25" t="n">
-        <v>695.123986754149</v>
+        <v>695.1239867541495</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5022730783596</v>
+        <v>562.5022730783597</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1557.489279487026</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E26" t="n">
-        <v>989.7770592175121</v>
+        <v>989.7770592175127</v>
       </c>
       <c r="F26" t="n">
-        <v>666.9620198956452</v>
+        <v>666.9620198956459</v>
       </c>
       <c r="G26" t="n">
-        <v>337.9529754427121</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H26" t="n">
-        <v>106.9572181940502</v>
+        <v>106.9572181940503</v>
       </c>
       <c r="I26" t="n">
         <v>71.88334228526003</v>
@@ -6254,19 +6254,19 @@
         <v>3524.023571847628</v>
       </c>
       <c r="T26" t="n">
-        <v>3396.991284575369</v>
+        <v>3396.99128457537</v>
       </c>
       <c r="U26" t="n">
-        <v>3231.463076535692</v>
+        <v>3231.463076535693</v>
       </c>
       <c r="V26" t="n">
-        <v>2988.571054659862</v>
+        <v>2988.571054659863</v>
       </c>
       <c r="W26" t="n">
-        <v>2723.973264857488</v>
+        <v>2723.973264857489</v>
       </c>
       <c r="X26" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.67837206415</v>
       </c>
       <c r="Y26" t="n">
         <v>2136.709905556078</v>
@@ -6303,16 +6303,16 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J27" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K27" t="n">
-        <v>507.6052503062285</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L27" t="n">
-        <v>1001.476945390883</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M27" t="n">
-        <v>1168.733127659533</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N27" t="n">
         <v>1483.398778386723</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>469.0246737158611</v>
+        <v>513.1899151668213</v>
       </c>
       <c r="C28" t="n">
-        <v>388.2593562556947</v>
+        <v>432.4245977066549</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3135823110996</v>
+        <v>370.4788237620597</v>
       </c>
       <c r="E28" t="n">
-        <v>266.5713541964471</v>
+        <v>310.7365956474072</v>
       </c>
       <c r="F28" t="n">
-        <v>256.395426652414</v>
+        <v>252.0175136172375</v>
       </c>
       <c r="G28" t="n">
         <v>175.9181215958874</v>
       </c>
       <c r="H28" t="n">
-        <v>109.466922525046</v>
+        <v>109.4669225250461</v>
       </c>
       <c r="I28" t="n">
         <v>71.88334228526003</v>
       </c>
       <c r="J28" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413134</v>
       </c>
       <c r="K28" t="n">
         <v>320.6756181243584</v>
@@ -6394,7 +6394,7 @@
         <v>871.239980094535</v>
       </c>
       <c r="N28" t="n">
-        <v>1157.281524847586</v>
+        <v>1157.281524847587</v>
       </c>
       <c r="O28" t="n">
         <v>1412.067750491543</v>
@@ -6406,28 +6406,28 @@
         <v>1705.47592029275</v>
       </c>
       <c r="R28" t="n">
-        <v>1661.310678841791</v>
+        <v>1705.47592029275</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.321068460391</v>
+        <v>1585.486309911351</v>
       </c>
       <c r="T28" t="n">
-        <v>1403.686164565626</v>
+        <v>1447.851406016586</v>
       </c>
       <c r="U28" t="n">
-        <v>1202.702599491793</v>
+        <v>1246.867840942753</v>
       </c>
       <c r="V28" t="n">
-        <v>1036.188976753647</v>
+        <v>1080.354218204607</v>
       </c>
       <c r="W28" t="n">
-        <v>834.9426721844268</v>
+        <v>879.1079136353867</v>
       </c>
       <c r="X28" t="n">
-        <v>695.12398675415</v>
+        <v>739.2892282051099</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.5022730783602</v>
+        <v>606.6675145293203</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E29" t="n">
-        <v>989.7770592175123</v>
+        <v>989.7770592175125</v>
       </c>
       <c r="F29" t="n">
-        <v>666.9620198956453</v>
+        <v>666.9620198956454</v>
       </c>
       <c r="G29" t="n">
         <v>337.9529754427122</v>
@@ -6488,7 +6488,7 @@
         <v>3594.167114263001</v>
       </c>
       <c r="S29" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847627</v>
       </c>
       <c r="T29" t="n">
         <v>3396.991284575369</v>
@@ -6503,7 +6503,7 @@
         <v>2723.973264857489</v>
       </c>
       <c r="X29" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064149</v>
       </c>
       <c r="Y29" t="n">
         <v>2136.709905556078</v>
@@ -6543,19 +6543,19 @@
         <v>71.88334228526003</v>
       </c>
       <c r="K30" t="n">
-        <v>393.5104211629481</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L30" t="n">
-        <v>887.3821162476024</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M30" t="n">
-        <v>1515.686311628752</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.676919340261</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O30" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P30" t="n">
         <v>2436.0824370069</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.5678282019977</v>
+        <v>479.9842479622113</v>
       </c>
       <c r="C31" t="n">
-        <v>436.8025107418314</v>
+        <v>399.2189305020449</v>
       </c>
       <c r="D31" t="n">
-        <v>374.8567367972362</v>
+        <v>337.2731565574498</v>
       </c>
       <c r="E31" t="n">
-        <v>315.1145086825837</v>
+        <v>277.5309284427972</v>
       </c>
       <c r="F31" t="n">
-        <v>256.3954266524139</v>
+        <v>218.8118464126275</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9181215958874</v>
+        <v>138.3345413561015</v>
       </c>
       <c r="H31" t="n">
-        <v>109.4669225250461</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I31" t="n">
         <v>71.88334228526003</v>
@@ -6628,16 +6628,16 @@
         <v>585.903165714185</v>
       </c>
       <c r="M31" t="n">
-        <v>871.2399800945349</v>
+        <v>871.239980094535</v>
       </c>
       <c r="N31" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O31" t="n">
-        <v>1412.067750491542</v>
+        <v>1412.067750491543</v>
       </c>
       <c r="P31" t="n">
-        <v>1619.032921438428</v>
+        <v>1619.032921438429</v>
       </c>
       <c r="Q31" t="n">
         <v>1705.47592029275</v>
@@ -6655,16 +6655,16 @@
         <v>1202.702599491793</v>
       </c>
       <c r="V31" t="n">
-        <v>1036.188976753647</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W31" t="n">
-        <v>834.9426721844264</v>
+        <v>834.9426721844263</v>
       </c>
       <c r="X31" t="n">
-        <v>695.1239867541497</v>
+        <v>695.1239867541495</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.5022730783602</v>
+        <v>573.4618473247104</v>
       </c>
     </row>
     <row r="32">
@@ -6777,22 +6777,22 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J33" t="n">
-        <v>84.15709483786702</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K33" t="n">
-        <v>405.7841737155551</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L33" t="n">
-        <v>899.6558688002094</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M33" t="n">
-        <v>1527.960064181359</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N33" t="n">
-        <v>2188.600615424223</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O33" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P33" t="n">
         <v>2436.0824370069</v>
@@ -6865,7 +6865,7 @@
         <v>585.903165714185</v>
       </c>
       <c r="M34" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945349</v>
       </c>
       <c r="N34" t="n">
         <v>1157.281524847586</v>
@@ -6889,16 +6889,16 @@
         <v>1403.686164565626</v>
       </c>
       <c r="U34" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V34" t="n">
         <v>1036.188976753646</v>
       </c>
       <c r="W34" t="n">
-        <v>834.9426721844262</v>
+        <v>834.9426721844258</v>
       </c>
       <c r="X34" t="n">
-        <v>695.1239867541494</v>
+        <v>695.123986754149</v>
       </c>
       <c r="Y34" t="n">
         <v>562.5022730783591</v>
@@ -6914,22 +6914,22 @@
         <v>1838.280930959697</v>
       </c>
       <c r="C35" t="n">
-        <v>1557.489279487025</v>
+        <v>1557.489279487026</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.394446348015</v>
+        <v>1287.394446348016</v>
       </c>
       <c r="E35" t="n">
-        <v>989.7770592175118</v>
+        <v>989.7770592175125</v>
       </c>
       <c r="F35" t="n">
-        <v>666.9620198956447</v>
+        <v>666.9620198956454</v>
       </c>
       <c r="G35" t="n">
         <v>337.9529754427122</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I35" t="n">
         <v>71.88334228526003</v>
@@ -6962,22 +6962,22 @@
         <v>3594.167114263001</v>
       </c>
       <c r="S35" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847627</v>
       </c>
       <c r="T35" t="n">
-        <v>3396.991284575369</v>
+        <v>3396.99128457537</v>
       </c>
       <c r="U35" t="n">
-        <v>3231.463076535692</v>
+        <v>3231.463076535693</v>
       </c>
       <c r="V35" t="n">
-        <v>2988.571054659862</v>
+        <v>2988.571054659863</v>
       </c>
       <c r="W35" t="n">
         <v>2723.973264857489</v>
       </c>
       <c r="X35" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.67837206415</v>
       </c>
       <c r="Y35" t="n">
         <v>2136.709905556078</v>
@@ -7014,16 +7014,16 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J36" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K36" t="n">
-        <v>507.6052503062285</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L36" t="n">
-        <v>1001.476945390883</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M36" t="n">
-        <v>1297.307177743977</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N36" t="n">
         <v>1483.398778386723</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.0246737158606</v>
+        <v>469.0246737158602</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2593562556943</v>
+        <v>388.2593562556938</v>
       </c>
       <c r="D37" t="n">
-        <v>374.8567367972365</v>
+        <v>326.3135823110985</v>
       </c>
       <c r="E37" t="n">
-        <v>315.1145086825839</v>
+        <v>266.5713541964459</v>
       </c>
       <c r="F37" t="n">
-        <v>256.3954266524141</v>
+        <v>207.8522721662761</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9181215958876</v>
+        <v>127.3749671097494</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I37" t="n">
         <v>71.88334228526003</v>
       </c>
       <c r="J37" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413134</v>
       </c>
       <c r="K37" t="n">
-        <v>320.6756181243585</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L37" t="n">
-        <v>585.9031657141851</v>
+        <v>585.9031657141849</v>
       </c>
       <c r="M37" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945346</v>
       </c>
       <c r="N37" t="n">
         <v>1157.281524847586</v>
@@ -7114,31 +7114,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q37" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R37" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S37" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T37" t="n">
         <v>1403.686164565626</v>
       </c>
       <c r="U37" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V37" t="n">
         <v>1036.188976753646</v>
       </c>
       <c r="W37" t="n">
-        <v>834.9426721844263</v>
+        <v>834.9426721844259</v>
       </c>
       <c r="X37" t="n">
-        <v>695.1239867541495</v>
+        <v>695.1239867541491</v>
       </c>
       <c r="Y37" t="n">
-        <v>562.5022730783597</v>
+        <v>562.5022730783594</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C38" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E38" t="n">
-        <v>989.7770592175121</v>
+        <v>989.7770592175127</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9620198956452</v>
+        <v>666.9620198956457</v>
       </c>
       <c r="G38" t="n">
-        <v>337.9529754427122</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H38" t="n">
         <v>106.9572181940503</v>
@@ -7172,10 +7172,10 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J38" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424911</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8408574352537</v>
+        <v>644.8408574352533</v>
       </c>
       <c r="L38" t="n">
         <v>1183.404917961334</v>
@@ -7196,28 +7196,28 @@
         <v>3594.167114263001</v>
       </c>
       <c r="R38" t="n">
-        <v>3594.167114263</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="S38" t="n">
-        <v>3524.023571847627</v>
+        <v>3524.02357184763</v>
       </c>
       <c r="T38" t="n">
-        <v>3396.991284575368</v>
+        <v>3396.991284575371</v>
       </c>
       <c r="U38" t="n">
-        <v>3231.463076535692</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V38" t="n">
-        <v>2988.571054659862</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W38" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X38" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y38" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J39" t="n">
-        <v>84.15709483786702</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="K39" t="n">
-        <v>405.7841737155551</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L39" t="n">
-        <v>899.6558688002094</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M39" t="n">
-        <v>1527.960064181359</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N39" t="n">
-        <v>2188.600615424223</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O39" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P39" t="n">
         <v>2436.0824370069</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.5678282019977</v>
+        <v>469.02467371586</v>
       </c>
       <c r="C40" t="n">
-        <v>436.8025107418314</v>
+        <v>388.2593562556936</v>
       </c>
       <c r="D40" t="n">
-        <v>374.8567367972362</v>
+        <v>374.8567367972368</v>
       </c>
       <c r="E40" t="n">
-        <v>315.1145086825837</v>
+        <v>315.1145086825842</v>
       </c>
       <c r="F40" t="n">
-        <v>256.3954266524139</v>
+        <v>256.3954266524144</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9181215958874</v>
+        <v>175.9181215958877</v>
       </c>
       <c r="H40" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I40" t="n">
         <v>71.88334228526001</v>
       </c>
       <c r="J40" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K40" t="n">
         <v>320.6756181243582</v>
       </c>
       <c r="L40" t="n">
-        <v>585.9031657141849</v>
+        <v>585.9031657141846</v>
       </c>
       <c r="M40" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945344</v>
       </c>
       <c r="N40" t="n">
         <v>1157.281524847586</v>
@@ -7351,31 +7351,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q40" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R40" t="n">
-        <v>1705.47592029275</v>
+        <v>1661.31067884179</v>
       </c>
       <c r="S40" t="n">
-        <v>1585.48630991135</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T40" t="n">
-        <v>1447.851406016586</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U40" t="n">
-        <v>1246.867840942753</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V40" t="n">
-        <v>1080.354218204606</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W40" t="n">
-        <v>883.4858266705631</v>
+        <v>834.9426721844256</v>
       </c>
       <c r="X40" t="n">
-        <v>743.6671412402864</v>
+        <v>695.1239867541487</v>
       </c>
       <c r="Y40" t="n">
-        <v>611.0454275644968</v>
+        <v>562.5022730783592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1875.768341933454</v>
+        <v>1816.593495867188</v>
       </c>
       <c r="C41" t="n">
-        <v>1529.933365110073</v>
+        <v>1470.758519043807</v>
       </c>
       <c r="D41" t="n">
-        <v>1194.795206620353</v>
+        <v>1135.620360554087</v>
       </c>
       <c r="E41" t="n">
-        <v>832.1344941391387</v>
+        <v>1135.620360554087</v>
       </c>
       <c r="F41" t="n">
-        <v>444.2761294665615</v>
+        <v>747.7619958815094</v>
       </c>
       <c r="G41" t="n">
-        <v>71.88334228526001</v>
+        <v>353.7096260778658</v>
       </c>
       <c r="H41" t="n">
         <v>71.88334228526001</v>
@@ -7409,10 +7409,10 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J41" t="n">
-        <v>252.8595824424911</v>
+        <v>252.859582442491</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8408574352533</v>
+        <v>644.8408574352534</v>
       </c>
       <c r="L41" t="n">
         <v>1183.404917961334</v>
@@ -7439,22 +7439,22 @@
         <v>3594.167114263001</v>
       </c>
       <c r="T41" t="n">
-        <v>3594.167114263001</v>
+        <v>3402.091501640032</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.167114263001</v>
+        <v>3171.519968249645</v>
       </c>
       <c r="V41" t="n">
-        <v>3286.23176703646</v>
+        <v>2863.584621023104</v>
       </c>
       <c r="W41" t="n">
-        <v>2956.590651883377</v>
+        <v>2533.94350587002</v>
       </c>
       <c r="X41" t="n">
-        <v>2606.252433739327</v>
+        <v>2183.60528772597</v>
       </c>
       <c r="Y41" t="n">
-        <v>2239.240641880546</v>
+        <v>1816.593495867188</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J42" t="n">
-        <v>71.88334228526001</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K42" t="n">
-        <v>393.5104211629481</v>
+        <v>507.6052503062285</v>
       </c>
       <c r="L42" t="n">
-        <v>584.3777278466712</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.681923227821</v>
+        <v>1168.733127659533</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.322474470685</v>
+        <v>1829.373678902396</v>
       </c>
       <c r="O42" t="n">
-        <v>2021.340137914921</v>
+        <v>2367.315038430595</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.0824370069</v>
+        <v>2466.779196569036</v>
       </c>
       <c r="Q42" t="n">
         <v>2660.628911095451</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.88334228526001</v>
+        <v>722.892712587033</v>
       </c>
       <c r="C43" t="n">
-        <v>71.88334228526001</v>
+        <v>577.0840697761562</v>
       </c>
       <c r="D43" t="n">
-        <v>71.88334228526001</v>
+        <v>577.0840697761562</v>
       </c>
       <c r="E43" t="n">
-        <v>71.88334228526001</v>
+        <v>452.2985163107932</v>
       </c>
       <c r="F43" t="n">
-        <v>71.88334228526001</v>
+        <v>328.536108929913</v>
       </c>
       <c r="G43" t="n">
-        <v>71.88334228526001</v>
+        <v>183.0154785226758</v>
       </c>
       <c r="H43" t="n">
         <v>71.88334228526001</v>
@@ -7567,52 +7567,52 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J43" t="n">
-        <v>74.16818876508235</v>
+        <v>74.16818876508215</v>
       </c>
       <c r="K43" t="n">
-        <v>193.1776917718962</v>
+        <v>193.1776917718958</v>
       </c>
       <c r="L43" t="n">
-        <v>394.6562761854917</v>
+        <v>394.6562761854913</v>
       </c>
       <c r="M43" t="n">
-        <v>616.2441273896104</v>
+        <v>616.2441273896098</v>
       </c>
       <c r="N43" t="n">
-        <v>838.5367089664308</v>
+        <v>838.53670896643</v>
       </c>
       <c r="O43" t="n">
-        <v>1029.573971434156</v>
+        <v>1029.573971434155</v>
       </c>
       <c r="P43" t="n">
-        <v>1172.790179204811</v>
+        <v>1172.79017920481</v>
       </c>
       <c r="Q43" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.4842148829</v>
       </c>
       <c r="R43" t="n">
-        <v>1195.484214882901</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="S43" t="n">
-        <v>1010.451279150791</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="T43" t="n">
-        <v>1010.451279150791</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="U43" t="n">
-        <v>899.2209467258866</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="V43" t="n">
-        <v>899.2209467258866</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="W43" t="n">
-        <v>632.9313168059563</v>
+        <v>1086.27564808123</v>
       </c>
       <c r="X43" t="n">
-        <v>428.0693060249692</v>
+        <v>881.4136373002425</v>
       </c>
       <c r="Y43" t="n">
-        <v>230.4042669984694</v>
+        <v>881.4136373002425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1799.414637351525</v>
+        <v>2183.703689159994</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.579660528144</v>
+        <v>1837.868712336613</v>
       </c>
       <c r="D44" t="n">
-        <v>1118.441502038424</v>
+        <v>1502.730553846892</v>
       </c>
       <c r="E44" t="n">
-        <v>755.7807895572096</v>
+        <v>1140.069841365678</v>
       </c>
       <c r="F44" t="n">
-        <v>367.9224248846322</v>
+        <v>752.2114766931008</v>
       </c>
       <c r="G44" t="n">
-        <v>367.9224248846322</v>
+        <v>358.159106889457</v>
       </c>
       <c r="H44" t="n">
         <v>71.88334228526001</v>
@@ -7676,22 +7676,22 @@
         <v>3594.167114263001</v>
       </c>
       <c r="T44" t="n">
-        <v>3440.449595844918</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="U44" t="n">
-        <v>3209.878062454531</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="V44" t="n">
-        <v>3209.878062454531</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="W44" t="n">
-        <v>2880.236947301447</v>
+        <v>3264.525999109917</v>
       </c>
       <c r="X44" t="n">
-        <v>2529.898729157398</v>
+        <v>2914.187780965867</v>
       </c>
       <c r="Y44" t="n">
-        <v>2162.886937298616</v>
+        <v>2547.175989107086</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J45" t="n">
-        <v>84.15709483786702</v>
+        <v>71.88334228526001</v>
       </c>
       <c r="K45" t="n">
-        <v>405.7841737155551</v>
+        <v>161.6303497905548</v>
       </c>
       <c r="L45" t="n">
-        <v>899.6558688002094</v>
+        <v>655.5020448752091</v>
       </c>
       <c r="M45" t="n">
-        <v>1527.960064181359</v>
+        <v>822.7582271438592</v>
       </c>
       <c r="N45" t="n">
-        <v>2188.600615424223</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O45" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P45" t="n">
         <v>2436.0824370069</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.88334228526001</v>
+        <v>196.668895750623</v>
       </c>
       <c r="C46" t="n">
-        <v>71.88334228526001</v>
+        <v>196.668895750623</v>
       </c>
       <c r="D46" t="n">
-        <v>71.88334228526001</v>
+        <v>196.668895750623</v>
       </c>
       <c r="E46" t="n">
         <v>71.88334228526001</v>
@@ -7804,52 +7804,52 @@
         <v>71.88334228526001</v>
       </c>
       <c r="J46" t="n">
-        <v>74.16818876508236</v>
+        <v>74.16818876508215</v>
       </c>
       <c r="K46" t="n">
-        <v>193.1776917718962</v>
+        <v>193.1776917718958</v>
       </c>
       <c r="L46" t="n">
-        <v>394.6562761854917</v>
+        <v>394.6562761854911</v>
       </c>
       <c r="M46" t="n">
-        <v>616.2441273896104</v>
+        <v>616.2441273896097</v>
       </c>
       <c r="N46" t="n">
-        <v>838.5367089664308</v>
+        <v>838.5367089664298</v>
       </c>
       <c r="O46" t="n">
-        <v>1029.573971434156</v>
+        <v>1029.573971434155</v>
       </c>
       <c r="P46" t="n">
-        <v>1172.790179204811</v>
+        <v>1172.790179204809</v>
       </c>
       <c r="Q46" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.484214882899</v>
       </c>
       <c r="R46" t="n">
-        <v>1195.484214882901</v>
+        <v>1195.484214882899</v>
       </c>
       <c r="S46" t="n">
-        <v>1010.451279150792</v>
+        <v>1129.328684367073</v>
       </c>
       <c r="T46" t="n">
-        <v>807.7730499053166</v>
+        <v>926.6504551215974</v>
       </c>
       <c r="U46" t="n">
-        <v>541.746159480773</v>
+        <v>660.6235646970536</v>
       </c>
       <c r="V46" t="n">
-        <v>310.1892113919165</v>
+        <v>660.6235646970536</v>
       </c>
       <c r="W46" t="n">
-        <v>230.4042669984694</v>
+        <v>394.333934777123</v>
       </c>
       <c r="X46" t="n">
-        <v>230.4042669984694</v>
+        <v>394.333934777123</v>
       </c>
       <c r="Y46" t="n">
-        <v>230.4042669984694</v>
+        <v>196.668895750623</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>213.9932413622884</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>129.8727778630737</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>10.843733175479</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>145.455511986337</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>138.5936907254959</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504509</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>161.6156646987657</v>
       </c>
       <c r="P18" t="n">
-        <v>161.6156646987667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>10.84373317547904</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>253.8409928904258</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>192.7077704888619</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>10.84373317547907</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>233.4584091720375</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.07793532281595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547907</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702972</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>129.872777863075</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,22 +10191,22 @@
         <v>10.84373317547907</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702972</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>97.87778491794214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>23.24146302659725</v>
+        <v>10.84373317547907</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702972</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547907</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702972</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>129.872777863075</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>23.24146302659726</v>
+        <v>10.84373317547907</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702973</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>10.84373317547907</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>64.77530651463974</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>179.0704598953082</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>23.24146302659726</v>
+        <v>10.84373317547907</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702973</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.760636329592671e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.05772294127763</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>48.05772294127655</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>-3.339550858072471e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>48.05772294127598</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.334133904827659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.72358903645015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>48.05772294127623</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>48.0577229412777</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48.05772294127578</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>10.84997850388847</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.20774443738823</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.05772294127621</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.05772294127597</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>48.05772294127527</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.334133904824739</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>43.72358903645005</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.05772294127533</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.20774443738821</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>10.84997850388716</v>
       </c>
     </row>
     <row r="32">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.05772294127596</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>48.05772294127688</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>48.05772294127704</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.72358903645005</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>4.334133904825165</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>359.8375769476207</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>359.0341053564019</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>21.44298679611847</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>293.0786917733785</v>
+        <v>14.07067081869894</v>
       </c>
       <c r="I41" t="n">
-        <v>99.11602924690548</v>
+        <v>99.11602924690568</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.8349990884229</v>
+        <v>133.8349990884231</v>
       </c>
       <c r="T41" t="n">
-        <v>190.1548564967391</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>228.265818056483</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>144.3505563827678</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.7192083023523</v>
+        <v>125.7192083023525</v>
       </c>
       <c r="E43" t="n">
-        <v>123.5376979307091</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.5247833070712</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>144.0654241031644</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1795791773361</v>
+        <v>20.15876430229468</v>
       </c>
       <c r="I43" t="n">
-        <v>101.6006365345913</v>
+        <v>101.6006365345915</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.1164811336532</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1826063747887</v>
       </c>
       <c r="T43" t="n">
-        <v>200.6514469530202</v>
+        <v>200.6514469530204</v>
       </c>
       <c r="U43" t="n">
-        <v>153.2485924196423</v>
+        <v>263.3666215202983</v>
       </c>
       <c r="V43" t="n">
-        <v>229.241378607968</v>
+        <v>229.2413786079682</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>263.6267336207312</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>195.6883886362349</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1118461056069</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.66568481522363</v>
       </c>
       <c r="I44" t="n">
-        <v>99.1160292469055</v>
+        <v>99.11602924690568</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.8349990884229</v>
+        <v>133.8349990884231</v>
       </c>
       <c r="T44" t="n">
-        <v>37.97451326283741</v>
+        <v>190.1548564967393</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>228.2658180564832</v>
       </c>
       <c r="V44" t="n">
-        <v>304.8559937542749</v>
+        <v>304.8559937542751</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>156.9357154660775</v>
       </c>
       <c r="C46" t="n">
-        <v>144.3505563827678</v>
+        <v>144.350556382768</v>
       </c>
       <c r="D46" t="n">
-        <v>125.7192083023523</v>
+        <v>125.7192083023525</v>
       </c>
       <c r="E46" t="n">
-        <v>123.5376979307091</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>122.5247833070712</v>
+        <v>122.5247833070714</v>
       </c>
       <c r="G46" t="n">
-        <v>144.0654241031644</v>
+        <v>144.0654241031646</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1795791773361</v>
+        <v>130.1795791773363</v>
       </c>
       <c r="I46" t="n">
-        <v>101.6006365345913</v>
+        <v>101.6006365345915</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.1164811336532</v>
+        <v>108.1164811336534</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>117.6886311641202</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.2413786079682</v>
       </c>
       <c r="W46" t="n">
-        <v>184.6396386712183</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>202.8133906731771</v>
+        <v>202.8133906731773</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.6883886362347</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762260.8251566088</v>
+        <v>762260.8251566091</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>762260.8251566088</v>
+        <v>762260.8251566091</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659904.3771716767</v>
+        <v>659904.3771716765</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659904.3771716768</v>
+        <v>659904.3771716764</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>696905.1268366391</v>
+        <v>696905.1268366392</v>
       </c>
       <c r="F2" t="n">
         <v>696905.1268366392</v>
       </c>
       <c r="G2" t="n">
+        <v>696905.1268366392</v>
+      </c>
+      <c r="H2" t="n">
+        <v>696905.1268366392</v>
+      </c>
+      <c r="I2" t="n">
         <v>696905.126836639</v>
       </c>
-      <c r="H2" t="n">
-        <v>696905.126836639</v>
-      </c>
-      <c r="I2" t="n">
-        <v>696905.1268366391</v>
-      </c>
       <c r="J2" t="n">
-        <v>696905.1268366395</v>
+        <v>696905.1268366392</v>
       </c>
       <c r="K2" t="n">
-        <v>696905.126836639</v>
+        <v>696905.1268366389</v>
       </c>
       <c r="L2" t="n">
         <v>696905.1268366392</v>
@@ -26347,13 +26347,13 @@
         <v>696905.1268366394</v>
       </c>
       <c r="N2" t="n">
-        <v>696905.1268366394</v>
+        <v>696905.1268366391</v>
       </c>
       <c r="O2" t="n">
-        <v>600235.1481842019</v>
+        <v>600235.148184202</v>
       </c>
       <c r="P2" t="n">
-        <v>600235.1481842021</v>
+        <v>600235.148184202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>724727.6731978382</v>
+        <v>724727.6731978385</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163858.4805402311</v>
+        <v>163858.4805402312</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18317.01177268801</v>
+        <v>18317.01177268786</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>113456.641832571</v>
+        <v>113456.6418325709</v>
       </c>
       <c r="F4" t="n">
-        <v>113456.641832571</v>
+        <v>113456.6418325709</v>
       </c>
       <c r="G4" t="n">
-        <v>113456.641832571</v>
+        <v>113456.6418325709</v>
       </c>
       <c r="H4" t="n">
         <v>113456.641832571</v>
@@ -26448,16 +26448,16 @@
         <v>113456.641832571</v>
       </c>
       <c r="M4" t="n">
-        <v>113456.641832571</v>
+        <v>113456.6418325709</v>
       </c>
       <c r="N4" t="n">
         <v>113456.641832571</v>
       </c>
       <c r="O4" t="n">
-        <v>48384.68008348132</v>
+        <v>48384.68008348111</v>
       </c>
       <c r="P4" t="n">
-        <v>48384.68008348132</v>
+        <v>48384.68008348111</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>74412.83916400385</v>
+        <v>74412.83916400388</v>
       </c>
       <c r="F5" t="n">
-        <v>74412.83916400385</v>
+        <v>74412.83916400388</v>
       </c>
       <c r="G5" t="n">
-        <v>74412.83916400385</v>
+        <v>74412.83916400388</v>
       </c>
       <c r="H5" t="n">
         <v>74412.83916400385</v>
@@ -26503,13 +26503,13 @@
         <v>74412.83916400385</v>
       </c>
       <c r="N5" t="n">
-        <v>74412.83916400385</v>
+        <v>74412.83916400383</v>
       </c>
       <c r="O5" t="n">
-        <v>68999.39311828408</v>
+        <v>68999.39311828406</v>
       </c>
       <c r="P5" t="n">
-        <v>68999.39311828408</v>
+        <v>68999.39311828406</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264607.0082422529</v>
+        <v>264607.0082422528</v>
       </c>
       <c r="C6" t="n">
-        <v>345376.4397738008</v>
+        <v>345376.4397738006</v>
       </c>
       <c r="D6" t="n">
-        <v>345376.4397738006</v>
+        <v>345376.4397738004</v>
       </c>
       <c r="E6" t="n">
-        <v>-215692.0273577739</v>
+        <v>-215694.9108211505</v>
       </c>
       <c r="F6" t="n">
-        <v>509035.6458400644</v>
+        <v>509032.762376688</v>
       </c>
       <c r="G6" t="n">
-        <v>509035.6458400642</v>
+        <v>509032.762376688</v>
       </c>
       <c r="H6" t="n">
-        <v>509035.6458400642</v>
+        <v>509032.7623766881</v>
       </c>
       <c r="I6" t="n">
-        <v>509035.6458400643</v>
+        <v>509032.7623766877</v>
       </c>
       <c r="J6" t="n">
-        <v>376144.3777905079</v>
+        <v>376141.4943271313</v>
       </c>
       <c r="K6" t="n">
-        <v>509035.6458400642</v>
+        <v>509032.7623766875</v>
       </c>
       <c r="L6" t="n">
-        <v>509035.6458400644</v>
+        <v>509032.7623766879</v>
       </c>
       <c r="M6" t="n">
-        <v>345177.1652998334</v>
+        <v>345174.2818364569</v>
       </c>
       <c r="N6" t="n">
-        <v>509035.6458400645</v>
+        <v>509032.7623766878</v>
       </c>
       <c r="O6" t="n">
-        <v>464534.0632097485</v>
+        <v>464246.8562797477</v>
       </c>
       <c r="P6" t="n">
-        <v>482851.0749824367</v>
+        <v>482563.8680524356</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F2" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G2" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H2" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I2" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J2" t="n">
         <v>87.28915681306319</v>
@@ -26716,16 +26716,16 @@
         <v>87.28915681306314</v>
       </c>
       <c r="M2" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N2" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="O2" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="P2" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.7883900499463</v>
       </c>
       <c r="F3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.7883900499463</v>
       </c>
       <c r="G3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.7883900499463</v>
       </c>
       <c r="H3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.788390049946</v>
       </c>
       <c r="I3" t="n">
         <v>570.788390049946</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>898.5417785657504</v>
+        <v>898.5417785657507</v>
       </c>
       <c r="F4" t="n">
-        <v>898.5417785657504</v>
+        <v>898.5417785657507</v>
       </c>
       <c r="G4" t="n">
-        <v>898.5417785657505</v>
+        <v>898.5417785657507</v>
       </c>
       <c r="H4" t="n">
-        <v>898.5417785657504</v>
+        <v>898.5417785657503</v>
       </c>
       <c r="I4" t="n">
-        <v>898.5417785657504</v>
+        <v>898.5417785657503</v>
       </c>
       <c r="J4" t="n">
         <v>898.5417785657503</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306317</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.89626471586001</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.7883900499463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>657.5274896880914</v>
+        <v>657.5274896880917</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>657.5274896880914</v>
+        <v>657.5274896880917</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.28915681306317</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>657.5274896880914</v>
+        <v>657.5274896880917</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>290.6389069322254</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,13 +27436,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>26.50255120528305</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>192.1783936941173</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>362.1277178264953</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>87.95670792528455</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,10 +27752,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>61.52742449360861</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,10 +27986,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>117.2220797075721</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.729273895019304</v>
+        <v>5.729273895019247</v>
       </c>
       <c r="S11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="K13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="L13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="M13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="N13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="O13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="P13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="R13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="S13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>5.729273895019304</v>
+        <v>5.729273895019247</v>
       </c>
       <c r="S14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="K16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="L16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="M16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="N16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="O16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="P16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="R16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="S16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5.729273895019304</v>
+        <v>5.729273895019247</v>
       </c>
       <c r="S17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="C19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="D19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="E19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="F19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="G19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="H19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="I19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="J19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="K19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="L19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="M19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="N19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="O19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="P19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="R19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="S19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="T19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="U19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="V19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="W19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="X19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306306</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.729273895020205</v>
+        <v>5.729273895019332</v>
       </c>
       <c r="S20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="K22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="L22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="M22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="N22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="O22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="P22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="R22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="S22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.729273895019332</v>
+        <v>5.729273895020233</v>
       </c>
       <c r="S23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="C25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="D25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="E25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="F25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="G25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="H25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="J25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="K25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="L25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="M25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="N25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="O25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="P25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="R25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="S25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="T25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="U25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="V25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="W25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="X25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306314</v>
       </c>
     </row>
     <row r="26">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>5.729273895019332</v>
       </c>
       <c r="S35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.28915681306316</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="C38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="D38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="E38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="F38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="G38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="H38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="I38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.729273895019332</v>
+        <v>5.729273895022089</v>
       </c>
       <c r="S38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="T38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="U38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="V38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="W38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="X38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="C40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="D40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="E40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="F40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="G40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="H40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="J40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="K40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="L40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="M40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="N40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="O40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="P40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="R40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="S40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="T40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="U40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="V40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="W40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="X40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.28915681306319</v>
+        <v>87.2891568130631</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="D41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="E41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="F41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="G41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="H41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="I41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>5.729273895019332</v>
       </c>
       <c r="S41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="T41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="U41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="V41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="W41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="X41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="C43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="D43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="E43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="F43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="G43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="H43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="I43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="J43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="K43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="L43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="M43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="N43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="O43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="P43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="R43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="S43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="T43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="U43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="V43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="W43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="X43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="C44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="D44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="E44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="F44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="G44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="H44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="I44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>5.729273895019332</v>
       </c>
       <c r="S44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="T44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="U44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="V44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="W44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="X44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="C46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="D46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="E46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="F46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="G46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="H46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="I46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="J46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="K46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="L46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="M46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="N46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="O46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="P46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="R46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="S46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="T46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="U46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="V46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="W46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="X46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.89626471586003</v>
+        <v>22.89626471585983</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.294626693668123</v>
+        <v>2.294626693668124</v>
       </c>
       <c r="H11" t="n">
-        <v>23.49984562652867</v>
+        <v>23.49984562652868</v>
       </c>
       <c r="I11" t="n">
-        <v>88.4635956076404</v>
+        <v>88.46359560764044</v>
       </c>
       <c r="J11" t="n">
         <v>194.7535723417151</v>
       </c>
       <c r="K11" t="n">
-        <v>291.8851202846868</v>
+        <v>291.8851202846869</v>
       </c>
       <c r="L11" t="n">
-        <v>362.1093019610327</v>
+        <v>362.1093019610328</v>
       </c>
       <c r="M11" t="n">
-        <v>402.9163694245531</v>
+        <v>402.9163694245533</v>
       </c>
       <c r="N11" t="n">
-        <v>409.4359775179377</v>
+        <v>409.4359775179379</v>
       </c>
       <c r="O11" t="n">
-        <v>386.6187833327753</v>
+        <v>386.6187833327755</v>
       </c>
       <c r="P11" t="n">
-        <v>329.9701868328435</v>
+        <v>329.9701868328436</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.7938683658537</v>
+        <v>247.7938683658538</v>
       </c>
       <c r="R11" t="n">
         <v>144.1398440461304</v>
       </c>
       <c r="S11" t="n">
-        <v>52.28880578196241</v>
+        <v>52.28880578196243</v>
       </c>
       <c r="T11" t="n">
-        <v>10.04472835153221</v>
+        <v>10.04472835153222</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1835701354934498</v>
+        <v>0.1835701354934499</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I12" t="n">
-        <v>42.2706496404913</v>
+        <v>42.27064964049131</v>
       </c>
       <c r="J12" t="n">
-        <v>115.9938934911876</v>
+        <v>115.9938934911877</v>
       </c>
       <c r="K12" t="n">
-        <v>198.2520392119704</v>
+        <v>198.2520392119705</v>
       </c>
       <c r="L12" t="n">
-        <v>266.5743325417225</v>
+        <v>266.5743325417226</v>
       </c>
       <c r="M12" t="n">
-        <v>311.0796725772205</v>
+        <v>311.0796725772207</v>
       </c>
       <c r="N12" t="n">
-        <v>319.3130258638845</v>
+        <v>319.3130258638846</v>
       </c>
       <c r="O12" t="n">
-        <v>292.1090358022587</v>
+        <v>292.1090358022589</v>
       </c>
       <c r="P12" t="n">
         <v>234.4432540188166</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.719106641638</v>
+        <v>156.7191066416381</v>
       </c>
       <c r="R12" t="n">
-        <v>76.22717405233057</v>
+        <v>76.2271740523306</v>
       </c>
       <c r="S12" t="n">
-        <v>22.80461162133509</v>
+        <v>22.80461162133511</v>
       </c>
       <c r="T12" t="n">
-        <v>4.94862764581038</v>
+        <v>4.948627645810382</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08077194198819995</v>
+        <v>0.08077194198819998</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H13" t="n">
-        <v>9.151328614243404</v>
+        <v>9.151328614243408</v>
       </c>
       <c r="I13" t="n">
-        <v>30.95357367680692</v>
+        <v>30.95357367680693</v>
       </c>
       <c r="J13" t="n">
-        <v>72.77084113800704</v>
+        <v>72.77084113800707</v>
       </c>
       <c r="K13" t="n">
-        <v>119.5848463088247</v>
+        <v>119.5848463088248</v>
       </c>
       <c r="L13" t="n">
-        <v>153.0274316537183</v>
+        <v>153.0274316537184</v>
       </c>
       <c r="M13" t="n">
-        <v>161.3459706496921</v>
+        <v>161.3459706496922</v>
       </c>
       <c r="N13" t="n">
-        <v>157.5095240936188</v>
+        <v>157.5095240936189</v>
       </c>
       <c r="O13" t="n">
         <v>145.4855391556814</v>
@@ -31938,19 +31938,19 @@
         <v>124.488012151221</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.18904689754186</v>
+        <v>86.18904689754189</v>
       </c>
       <c r="R13" t="n">
-        <v>46.28064552765627</v>
+        <v>46.28064552765628</v>
       </c>
       <c r="S13" t="n">
         <v>17.93772694632371</v>
       </c>
       <c r="T13" t="n">
-        <v>4.397877759401222</v>
+        <v>4.397877759401224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05614312033278164</v>
+        <v>0.05614312033278166</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.294626693668123</v>
+        <v>2.294626693668124</v>
       </c>
       <c r="H14" t="n">
-        <v>23.49984562652867</v>
+        <v>23.49984562652868</v>
       </c>
       <c r="I14" t="n">
-        <v>88.4635956076404</v>
+        <v>88.46359560764044</v>
       </c>
       <c r="J14" t="n">
         <v>194.7535723417151</v>
       </c>
       <c r="K14" t="n">
-        <v>291.8851202846868</v>
+        <v>291.8851202846869</v>
       </c>
       <c r="L14" t="n">
-        <v>362.1093019610327</v>
+        <v>362.1093019610328</v>
       </c>
       <c r="M14" t="n">
-        <v>402.9163694245531</v>
+        <v>402.9163694245533</v>
       </c>
       <c r="N14" t="n">
-        <v>409.4359775179377</v>
+        <v>409.4359775179379</v>
       </c>
       <c r="O14" t="n">
-        <v>386.6187833327753</v>
+        <v>386.6187833327755</v>
       </c>
       <c r="P14" t="n">
-        <v>329.9701868328435</v>
+        <v>329.9701868328436</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.7938683658537</v>
+        <v>247.7938683658538</v>
       </c>
       <c r="R14" t="n">
         <v>144.1398440461304</v>
       </c>
       <c r="S14" t="n">
-        <v>52.28880578196241</v>
+        <v>52.28880578196243</v>
       </c>
       <c r="T14" t="n">
-        <v>10.04472835153221</v>
+        <v>10.04472835153222</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1835701354934498</v>
+        <v>0.1835701354934499</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I15" t="n">
-        <v>42.2706496404913</v>
+        <v>42.27064964049131</v>
       </c>
       <c r="J15" t="n">
-        <v>115.9938934911876</v>
+        <v>115.9938934911877</v>
       </c>
       <c r="K15" t="n">
-        <v>198.2520392119704</v>
+        <v>198.2520392119705</v>
       </c>
       <c r="L15" t="n">
-        <v>266.5743325417225</v>
+        <v>266.5743325417226</v>
       </c>
       <c r="M15" t="n">
-        <v>311.0796725772205</v>
+        <v>311.0796725772207</v>
       </c>
       <c r="N15" t="n">
-        <v>319.3130258638845</v>
+        <v>319.3130258638846</v>
       </c>
       <c r="O15" t="n">
-        <v>292.1090358022587</v>
+        <v>292.1090358022589</v>
       </c>
       <c r="P15" t="n">
         <v>234.4432540188166</v>
       </c>
       <c r="Q15" t="n">
-        <v>156.719106641638</v>
+        <v>156.7191066416381</v>
       </c>
       <c r="R15" t="n">
-        <v>76.22717405233057</v>
+        <v>76.2271740523306</v>
       </c>
       <c r="S15" t="n">
-        <v>22.80461162133509</v>
+        <v>22.80461162133511</v>
       </c>
       <c r="T15" t="n">
-        <v>4.94862764581038</v>
+        <v>4.948627645810382</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08077194198819995</v>
+        <v>0.08077194198819998</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H16" t="n">
-        <v>9.151328614243404</v>
+        <v>9.151328614243408</v>
       </c>
       <c r="I16" t="n">
-        <v>30.95357367680692</v>
+        <v>30.95357367680693</v>
       </c>
       <c r="J16" t="n">
-        <v>72.77084113800704</v>
+        <v>72.77084113800707</v>
       </c>
       <c r="K16" t="n">
-        <v>119.5848463088247</v>
+        <v>119.5848463088248</v>
       </c>
       <c r="L16" t="n">
-        <v>153.0274316537183</v>
+        <v>153.0274316537184</v>
       </c>
       <c r="M16" t="n">
-        <v>161.3459706496921</v>
+        <v>161.3459706496922</v>
       </c>
       <c r="N16" t="n">
-        <v>157.5095240936188</v>
+        <v>157.5095240936189</v>
       </c>
       <c r="O16" t="n">
         <v>145.4855391556814</v>
@@ -32175,19 +32175,19 @@
         <v>124.488012151221</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.18904689754186</v>
+        <v>86.18904689754189</v>
       </c>
       <c r="R16" t="n">
-        <v>46.28064552765627</v>
+        <v>46.28064552765628</v>
       </c>
       <c r="S16" t="n">
         <v>17.93772694632371</v>
       </c>
       <c r="T16" t="n">
-        <v>4.397877759401222</v>
+        <v>4.397877759401224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05614312033278164</v>
+        <v>0.05614312033278166</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.294626693668123</v>
+        <v>2.294626693668124</v>
       </c>
       <c r="H17" t="n">
-        <v>23.49984562652867</v>
+        <v>23.49984562652868</v>
       </c>
       <c r="I17" t="n">
-        <v>88.4635956076404</v>
+        <v>88.46359560764044</v>
       </c>
       <c r="J17" t="n">
         <v>194.7535723417151</v>
       </c>
       <c r="K17" t="n">
-        <v>291.8851202846868</v>
+        <v>291.8851202846869</v>
       </c>
       <c r="L17" t="n">
-        <v>362.1093019610327</v>
+        <v>362.1093019610328</v>
       </c>
       <c r="M17" t="n">
-        <v>402.9163694245531</v>
+        <v>402.9163694245533</v>
       </c>
       <c r="N17" t="n">
-        <v>409.4359775179377</v>
+        <v>409.4359775179379</v>
       </c>
       <c r="O17" t="n">
-        <v>386.6187833327753</v>
+        <v>386.6187833327755</v>
       </c>
       <c r="P17" t="n">
-        <v>329.9701868328435</v>
+        <v>329.9701868328436</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.7938683658537</v>
+        <v>247.7938683658538</v>
       </c>
       <c r="R17" t="n">
         <v>144.1398440461304</v>
       </c>
       <c r="S17" t="n">
-        <v>52.28880578196241</v>
+        <v>52.28880578196243</v>
       </c>
       <c r="T17" t="n">
-        <v>10.04472835153221</v>
+        <v>10.04472835153222</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1835701354934498</v>
+        <v>0.1835701354934499</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I18" t="n">
-        <v>42.2706496404913</v>
+        <v>42.27064964049131</v>
       </c>
       <c r="J18" t="n">
-        <v>115.9938934911876</v>
+        <v>115.9938934911877</v>
       </c>
       <c r="K18" t="n">
-        <v>198.2520392119704</v>
+        <v>198.2520392119705</v>
       </c>
       <c r="L18" t="n">
-        <v>266.5743325417225</v>
+        <v>266.5743325417226</v>
       </c>
       <c r="M18" t="n">
-        <v>311.0796725772205</v>
+        <v>311.0796725772207</v>
       </c>
       <c r="N18" t="n">
-        <v>319.3130258638845</v>
+        <v>319.3130258638846</v>
       </c>
       <c r="O18" t="n">
-        <v>292.1090358022587</v>
+        <v>292.1090358022589</v>
       </c>
       <c r="P18" t="n">
         <v>234.4432540188166</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.719106641638</v>
+        <v>156.7191066416381</v>
       </c>
       <c r="R18" t="n">
-        <v>76.22717405233057</v>
+        <v>76.2271740523306</v>
       </c>
       <c r="S18" t="n">
-        <v>22.80461162133509</v>
+        <v>22.80461162133511</v>
       </c>
       <c r="T18" t="n">
-        <v>4.94862764581038</v>
+        <v>4.948627645810382</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08077194198819995</v>
+        <v>0.08077194198819998</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H19" t="n">
-        <v>9.151328614243404</v>
+        <v>9.151328614243408</v>
       </c>
       <c r="I19" t="n">
-        <v>30.95357367680692</v>
+        <v>30.95357367680693</v>
       </c>
       <c r="J19" t="n">
-        <v>72.77084113800704</v>
+        <v>72.77084113800707</v>
       </c>
       <c r="K19" t="n">
-        <v>119.5848463088247</v>
+        <v>119.5848463088248</v>
       </c>
       <c r="L19" t="n">
-        <v>153.0274316537183</v>
+        <v>153.0274316537184</v>
       </c>
       <c r="M19" t="n">
-        <v>161.3459706496921</v>
+        <v>161.3459706496922</v>
       </c>
       <c r="N19" t="n">
-        <v>157.5095240936188</v>
+        <v>157.5095240936189</v>
       </c>
       <c r="O19" t="n">
         <v>145.4855391556814</v>
@@ -32412,19 +32412,19 @@
         <v>124.488012151221</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.18904689754186</v>
+        <v>86.18904689754189</v>
       </c>
       <c r="R19" t="n">
-        <v>46.28064552765627</v>
+        <v>46.28064552765628</v>
       </c>
       <c r="S19" t="n">
         <v>17.93772694632371</v>
       </c>
       <c r="T19" t="n">
-        <v>4.397877759401222</v>
+        <v>4.397877759401224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05614312033278164</v>
+        <v>0.05614312033278166</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,16 +32467,16 @@
         <v>23.49984562652867</v>
       </c>
       <c r="I20" t="n">
-        <v>88.4635956076404</v>
+        <v>88.46359560764039</v>
       </c>
       <c r="J20" t="n">
-        <v>194.7535723417151</v>
+        <v>194.753572341715</v>
       </c>
       <c r="K20" t="n">
-        <v>291.8851202846868</v>
+        <v>291.8851202846867</v>
       </c>
       <c r="L20" t="n">
-        <v>362.1093019610327</v>
+        <v>362.1093019610326</v>
       </c>
       <c r="M20" t="n">
         <v>402.9163694245531</v>
@@ -32488,16 +32488,16 @@
         <v>386.6187833327753</v>
       </c>
       <c r="P20" t="n">
-        <v>329.9701868328435</v>
+        <v>329.9701868328434</v>
       </c>
       <c r="Q20" t="n">
         <v>247.7938683658537</v>
       </c>
       <c r="R20" t="n">
-        <v>144.1398440461304</v>
+        <v>144.1398440461303</v>
       </c>
       <c r="S20" t="n">
-        <v>52.28880578196241</v>
+        <v>52.2888057819624</v>
       </c>
       <c r="T20" t="n">
         <v>10.04472835153221</v>
@@ -32546,7 +32546,7 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I21" t="n">
-        <v>42.2706496404913</v>
+        <v>42.27064964049129</v>
       </c>
       <c r="J21" t="n">
         <v>115.9938934911876</v>
@@ -32555,34 +32555,34 @@
         <v>198.2520392119704</v>
       </c>
       <c r="L21" t="n">
-        <v>266.5743325417225</v>
+        <v>266.5743325417224</v>
       </c>
       <c r="M21" t="n">
         <v>311.0796725772205</v>
       </c>
       <c r="N21" t="n">
-        <v>319.3130258638845</v>
+        <v>319.3130258638844</v>
       </c>
       <c r="O21" t="n">
         <v>292.1090358022587</v>
       </c>
       <c r="P21" t="n">
-        <v>234.4432540188166</v>
+        <v>234.4432540188165</v>
       </c>
       <c r="Q21" t="n">
         <v>156.719106641638</v>
       </c>
       <c r="R21" t="n">
-        <v>76.22717405233057</v>
+        <v>76.22717405233055</v>
       </c>
       <c r="S21" t="n">
         <v>22.80461162133509</v>
       </c>
       <c r="T21" t="n">
-        <v>4.94862764581038</v>
+        <v>4.948627645810379</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08077194198819995</v>
+        <v>0.08077194198819994</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H22" t="n">
-        <v>9.151328614243404</v>
+        <v>9.151328614243402</v>
       </c>
       <c r="I22" t="n">
-        <v>30.95357367680692</v>
+        <v>30.95357367680691</v>
       </c>
       <c r="J22" t="n">
-        <v>72.77084113800704</v>
+        <v>72.77084113800703</v>
       </c>
       <c r="K22" t="n">
         <v>119.5848463088247</v>
@@ -32646,22 +32646,22 @@
         <v>145.4855391556814</v>
       </c>
       <c r="P22" t="n">
-        <v>124.488012151221</v>
+        <v>124.4880121512209</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.18904689754186</v>
+        <v>86.18904689754184</v>
       </c>
       <c r="R22" t="n">
-        <v>46.28064552765627</v>
+        <v>46.28064552765626</v>
       </c>
       <c r="S22" t="n">
-        <v>17.93772694632371</v>
+        <v>17.9377269463237</v>
       </c>
       <c r="T22" t="n">
-        <v>4.397877759401222</v>
+        <v>4.397877759401221</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05614312033278164</v>
+        <v>0.05614312033278163</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871026</v>
       </c>
       <c r="K11" t="n">
-        <v>395.940681810871</v>
+        <v>395.9406818108711</v>
       </c>
       <c r="L11" t="n">
-        <v>544.0041015414959</v>
+        <v>544.0041015414961</v>
       </c>
       <c r="M11" t="n">
-        <v>622.0836696901129</v>
+        <v>622.0836696901131</v>
       </c>
       <c r="N11" t="n">
-        <v>617.369838333331</v>
+        <v>617.3698383333311</v>
       </c>
       <c r="O11" t="n">
-        <v>537.320753173834</v>
+        <v>537.3207531738341</v>
       </c>
       <c r="P11" t="n">
-        <v>420.5358992490566</v>
+        <v>420.5358992490567</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.8031691513089</v>
+        <v>237.803169151309</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>115.2473021649298</v>
       </c>
       <c r="K12" t="n">
-        <v>60.41060023761145</v>
+        <v>324.8758372501901</v>
       </c>
       <c r="L12" t="n">
-        <v>342.0131941241367</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M12" t="n">
-        <v>634.6507024052021</v>
+        <v>298.8184165182761</v>
       </c>
       <c r="N12" t="n">
-        <v>667.3136881241047</v>
+        <v>187.9713137805513</v>
       </c>
       <c r="O12" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P12" t="n">
-        <v>418.9316152444235</v>
+        <v>418.9316152444236</v>
       </c>
       <c r="Q12" t="n">
-        <v>226.8146202914656</v>
+        <v>226.8146202914657</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K13" t="n">
         <v>184.604511296005</v>
@@ -35586,7 +35586,7 @@
         <v>209.0557282291776</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871026</v>
       </c>
       <c r="K14" t="n">
-        <v>395.940681810871</v>
+        <v>395.9406818108711</v>
       </c>
       <c r="L14" t="n">
-        <v>544.0041015414959</v>
+        <v>544.0041015414961</v>
       </c>
       <c r="M14" t="n">
-        <v>622.0836696901129</v>
+        <v>622.0836696901131</v>
       </c>
       <c r="N14" t="n">
-        <v>617.369838333331</v>
+        <v>617.3698383333311</v>
       </c>
       <c r="O14" t="n">
-        <v>537.320753173834</v>
+        <v>537.3207531738341</v>
       </c>
       <c r="P14" t="n">
-        <v>420.5358992490566</v>
+        <v>420.5358992490567</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.8031691513089</v>
+        <v>237.803169151309</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>60.41060023761145</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L15" t="n">
-        <v>128.0199527618483</v>
+        <v>273.4754647481854</v>
       </c>
       <c r="M15" t="n">
-        <v>634.6507024052021</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N15" t="n">
-        <v>667.3136881241047</v>
+        <v>667.3136881241048</v>
       </c>
       <c r="O15" t="n">
-        <v>543.3751106345438</v>
+        <v>543.3751106345439</v>
       </c>
       <c r="P15" t="n">
-        <v>239.0625373299822</v>
+        <v>418.9316152444236</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.8146202914656</v>
+        <v>16.7373325556166</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K16" t="n">
         <v>184.604511296005</v>
@@ -35823,7 +35823,7 @@
         <v>209.0557282291776</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871026</v>
       </c>
       <c r="K17" t="n">
-        <v>395.940681810871</v>
+        <v>395.9406818108711</v>
       </c>
       <c r="L17" t="n">
-        <v>544.0041015414959</v>
+        <v>544.0041015414965</v>
       </c>
       <c r="M17" t="n">
-        <v>622.0836696901129</v>
+        <v>622.0836696901131</v>
       </c>
       <c r="N17" t="n">
-        <v>617.369838333331</v>
+        <v>617.3698383333311</v>
       </c>
       <c r="O17" t="n">
-        <v>537.320753173834</v>
+        <v>537.3207531738341</v>
       </c>
       <c r="P17" t="n">
-        <v>420.5358992490571</v>
+        <v>420.5358992490567</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.8031691513089</v>
+        <v>237.803169151309</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>115.2473021649298</v>
       </c>
       <c r="K18" t="n">
-        <v>60.41060023761145</v>
+        <v>60.41060023761153</v>
       </c>
       <c r="L18" t="n">
-        <v>498.8602980653075</v>
+        <v>498.8602980653076</v>
       </c>
       <c r="M18" t="n">
-        <v>634.6507024052021</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N18" t="n">
-        <v>667.3136881241047</v>
+        <v>667.3136881241048</v>
       </c>
       <c r="O18" t="n">
-        <v>149.5127913578143</v>
+        <v>311.1284560565801</v>
       </c>
       <c r="P18" t="n">
-        <v>262.084511303253</v>
+        <v>100.4688466044864</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.8146202914656</v>
+        <v>226.8146202914657</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K19" t="n">
         <v>184.604511296005</v>
@@ -36060,7 +36060,7 @@
         <v>209.0557282291776</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>182.8042829871025</v>
       </c>
       <c r="K20" t="n">
-        <v>395.940681810871</v>
+        <v>395.9406818108709</v>
       </c>
       <c r="L20" t="n">
         <v>544.0041015414959</v>
@@ -36130,13 +36130,13 @@
         <v>622.0836696901129</v>
       </c>
       <c r="N20" t="n">
-        <v>617.369838333331</v>
+        <v>617.3698383333309</v>
       </c>
       <c r="O20" t="n">
-        <v>537.320753173834</v>
+        <v>537.3207531738339</v>
       </c>
       <c r="P20" t="n">
-        <v>420.5358992490566</v>
+        <v>420.5358992490565</v>
       </c>
       <c r="Q20" t="n">
         <v>237.8031691513089</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K21" t="n">
-        <v>60.41060023761145</v>
+        <v>324.87583725019</v>
       </c>
       <c r="L21" t="n">
-        <v>128.0199527618483</v>
+        <v>498.8602980653074</v>
       </c>
       <c r="M21" t="n">
         <v>634.6507024052021</v>
       </c>
       <c r="N21" t="n">
-        <v>667.3136881241047</v>
+        <v>187.9713137805511</v>
       </c>
       <c r="O21" t="n">
-        <v>543.3751106345438</v>
+        <v>543.3751106345437</v>
       </c>
       <c r="P21" t="n">
-        <v>354.3098394949121</v>
+        <v>100.4688466044863</v>
       </c>
       <c r="Q21" t="n">
-        <v>226.8146202914656</v>
+        <v>209.4451030444784</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K24" t="n">
-        <v>60.41060023761142</v>
+        <v>293.8690094096489</v>
       </c>
       <c r="L24" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M24" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N24" t="n">
         <v>667.3136881241046</v>
@@ -36455,7 +36455,7 @@
         <v>100.4688466044863</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.8152678784324</v>
+        <v>226.8146202914656</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>66.70081783439738</v>
+        <v>66.7008178343974</v>
       </c>
       <c r="K25" t="n">
         <v>184.604511296005</v>
@@ -36534,7 +36534,7 @@
         <v>209.0557282291776</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.31616045891059</v>
+        <v>87.3161604589106</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464114</v>
       </c>
       <c r="L27" t="n">
         <v>498.8602980653074</v>
@@ -36683,7 +36683,7 @@
         <v>168.9456386552022</v>
       </c>
       <c r="N27" t="n">
-        <v>317.8440916436261</v>
+        <v>667.3136881241046</v>
       </c>
       <c r="O27" t="n">
         <v>543.3751106345437</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464114</v>
       </c>
       <c r="L30" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M30" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N30" t="n">
-        <v>285.8490986984933</v>
+        <v>667.3136881241046</v>
       </c>
       <c r="O30" t="n">
         <v>543.3751106345437</v>
       </c>
       <c r="P30" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444234</v>
       </c>
       <c r="Q30" t="n">
         <v>226.8146202914656</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.39772985111818</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464114</v>
       </c>
       <c r="L33" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M33" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N33" t="n">
         <v>667.3136881241046</v>
       </c>
       <c r="O33" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345437</v>
       </c>
       <c r="P33" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444234</v>
       </c>
       <c r="Q33" t="n">
         <v>226.8146202914656</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464114</v>
       </c>
       <c r="L36" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M36" t="n">
-        <v>298.8184165182772</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N36" t="n">
-        <v>187.9713137805511</v>
+        <v>667.3136881241046</v>
       </c>
       <c r="O36" t="n">
         <v>543.3751106345437</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.70081783439741</v>
+        <v>66.70081783439734</v>
       </c>
       <c r="K37" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L37" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M37" t="n">
         <v>288.2190044245958</v>
@@ -37476,13 +37476,13 @@
         <v>288.9308532859105</v>
       </c>
       <c r="O37" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P37" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.31616045891062</v>
+        <v>87.31616045891055</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871021</v>
       </c>
       <c r="K38" t="n">
         <v>395.9406818108709</v>
@@ -37564,7 +37564,7 @@
         <v>237.8031691513089</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.756044550827055e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.39772985111819</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464115</v>
       </c>
       <c r="L39" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M39" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N39" t="n">
         <v>667.3136881241046</v>
       </c>
       <c r="O39" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345437</v>
       </c>
       <c r="P39" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444234</v>
       </c>
       <c r="Q39" t="n">
         <v>226.8146202914656</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>66.70081783439744</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K40" t="n">
-        <v>184.6045112960051</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L40" t="n">
         <v>267.9066137270976</v>
@@ -37713,13 +37713,13 @@
         <v>288.9308532859105</v>
       </c>
       <c r="O40" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P40" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.31616045891064</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.8042829871021</v>
+        <v>182.8042829871025</v>
       </c>
       <c r="K41" t="n">
         <v>395.9406818108709</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K42" t="n">
         <v>324.87583725019</v>
       </c>
       <c r="L42" t="n">
-        <v>192.795259276488</v>
+        <v>498.8602980653074</v>
       </c>
       <c r="M42" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N42" t="n">
         <v>667.3136881241046</v>
       </c>
       <c r="O42" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345437</v>
       </c>
       <c r="P42" t="n">
-        <v>418.9316152444234</v>
+        <v>100.4688466044863</v>
       </c>
       <c r="Q42" t="n">
-        <v>226.8146202914656</v>
+        <v>195.8077924509247</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.307925737194282</v>
+        <v>2.307925737194083</v>
       </c>
       <c r="K43" t="n">
-        <v>120.2116191988019</v>
+        <v>120.2116191988017</v>
       </c>
       <c r="L43" t="n">
-        <v>203.5137216298945</v>
+        <v>203.5137216298943</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8261123273927</v>
+        <v>223.8261123273925</v>
       </c>
       <c r="N43" t="n">
-        <v>224.5379611887074</v>
+        <v>224.5379611887072</v>
       </c>
       <c r="O43" t="n">
-        <v>192.966931785581</v>
+        <v>192.9669317855809</v>
       </c>
       <c r="P43" t="n">
-        <v>144.6628361319745</v>
+        <v>144.6628361319743</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.92326836170749</v>
+        <v>22.92326836170729</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.39772985111819</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>324.87583725019</v>
+        <v>90.65354293464115</v>
       </c>
       <c r="L45" t="n">
         <v>498.8602980653074</v>
       </c>
       <c r="M45" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N45" t="n">
         <v>667.3136881241046</v>
       </c>
       <c r="O45" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345437</v>
       </c>
       <c r="P45" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444234</v>
       </c>
       <c r="Q45" t="n">
         <v>226.8146202914656</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.307925737194285</v>
+        <v>2.307925737194083</v>
       </c>
       <c r="K46" t="n">
-        <v>120.2116191988019</v>
+        <v>120.2116191988017</v>
       </c>
       <c r="L46" t="n">
-        <v>203.5137216298945</v>
+        <v>203.5137216298943</v>
       </c>
       <c r="M46" t="n">
-        <v>223.8261123273927</v>
+        <v>223.8261123273925</v>
       </c>
       <c r="N46" t="n">
-        <v>224.5379611887074</v>
+        <v>224.5379611887072</v>
       </c>
       <c r="O46" t="n">
-        <v>192.9669317855811</v>
+        <v>192.9669317855809</v>
       </c>
       <c r="P46" t="n">
-        <v>144.6628361319745</v>
+        <v>144.6628361319743</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.92326836170749</v>
+        <v>22.92326836170729</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
